--- a/Flight Payload/Perovskite Performance/P3_Assembled/X002_PreSatellite/curve_0.0_1_Reverse.xlsx
+++ b/Flight Payload/Perovskite Performance/P3_Assembled/X002_PreSatellite/curve_0.0_1_Reverse.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Big-Red-Sat-1\Flight Payload\Perovskite Performance\P3_Assembled\X002_PreSatellite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A84CCB-99CA-4267-B605-DF0C5633DD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -80,11 +99,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +113,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,28 +159,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,27 +474,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45220.62755253485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>45220.627552534846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,7 +504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,15 +512,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,7 +528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,63 +536,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003213675213675214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f>MAX(Data!$B$2:$B$257)</f>
+        <v>0.9914188034188034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <f>MAX(Data!$C$2:$C$257)</f>
+        <v>1.449304508128038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.5141880341880342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.039718451483157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5346107866771517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <f>MAX(Data!$E$2:$E$257)</f>
+        <v>0.53461078667715167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>5346107.866771517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="3">
+        <f>(B12/((B8)*B9))</f>
+        <v>0.37206680290324845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.09217427356502615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="3">
+        <f>(B12/B5)/B6</f>
+        <v>9.2174273565026152E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -565,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -586,165 +626,165 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C2">
-        <v>1.220881514999162</v>
+        <v>1.2208815149991621</v>
       </c>
       <c r="D2">
-        <v>21.049681293089</v>
+        <v>21.049681293089002</v>
       </c>
       <c r="E2">
-        <v>0.00392351666358705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3.92351666358705E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004820512820512821</v>
+        <v>4.8205128205128208E-3</v>
       </c>
       <c r="C3">
         <v>1.260264789676554</v>
       </c>
       <c r="D3">
-        <v>21.72870327028541</v>
+        <v>21.728703270285411</v>
       </c>
       <c r="E3">
-        <v>0.006075122575876724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>6.0751225758767244E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.006427350427350428</v>
+        <v>6.4273504273504277E-3</v>
       </c>
       <c r="C4">
         <v>1.299648064353947</v>
       </c>
       <c r="D4">
-        <v>22.40772524748184</v>
+        <v>22.407725247481839</v>
       </c>
       <c r="E4">
-        <v>0.008353293541830497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8.3532935418304966E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.008034188034188034</v>
+        <v>8.0341880341880337E-3</v>
       </c>
       <c r="C5">
-        <v>1.323278029160382</v>
+        <v>1.3232780291603821</v>
       </c>
       <c r="D5">
-        <v>22.81513843379969</v>
+        <v>22.815138433799689</v>
       </c>
       <c r="E5">
-        <v>0.01063146450778427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1.063146450778427E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01124786324786325</v>
+        <v>1.1247863247863249E-2</v>
       </c>
       <c r="C6">
         <v>1.346907993966818</v>
       </c>
       <c r="D6">
-        <v>23.22255162011754</v>
+        <v>23.222551620117539</v>
       </c>
       <c r="E6">
-        <v>0.01514983692359258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1.5149836923592581E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01606837606837607</v>
+        <v>1.6068376068376071E-2</v>
       </c>
       <c r="C7">
-        <v>1.370537958773253</v>
+        <v>1.3705379587732529</v>
       </c>
       <c r="D7">
-        <v>23.62996480643539</v>
+        <v>23.629964806435389</v>
       </c>
       <c r="E7">
-        <v>0.02202231933755312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>2.2022319337553119E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0224957264957265</v>
+        <v>2.2495726495726499E-2</v>
       </c>
       <c r="C8">
-        <v>1.38629126864421</v>
+        <v>1.3862912686442099</v>
       </c>
       <c r="D8">
-        <v>23.90157359731396</v>
+        <v>23.901573597313959</v>
       </c>
       <c r="E8">
-        <v>0.03118562922283385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3.1185629222833851E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02731623931623932</v>
+        <v>2.7316239316239319E-2</v>
       </c>
       <c r="C9">
         <v>1.402044578515167</v>
       </c>
       <c r="D9">
-        <v>24.17318238819253</v>
+        <v>24.173182388192529</v>
       </c>
       <c r="E9">
-        <v>0.03829858523875618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>3.8298585238756178E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03535042735042735</v>
+        <v>3.5350427350427351E-2</v>
       </c>
       <c r="C10">
         <v>1.409921233450645</v>
       </c>
       <c r="D10">
-        <v>24.30898678363181</v>
+        <v>24.308986783631809</v>
       </c>
       <c r="E10">
-        <v>0.04984131813292195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>4.9841318132921947E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.04338461538461538</v>
+        <v>4.3384615384615383E-2</v>
       </c>
       <c r="C11">
         <v>1.417797888386124</v>
@@ -753,69 +793,69 @@
         <v>24.4447911790711</v>
       </c>
       <c r="E11">
-        <v>0.06151061608075183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>6.1510616080751833E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05141880341880342</v>
+        <v>5.1418803418803422E-2</v>
       </c>
       <c r="C12">
         <v>1.425674543321602</v>
       </c>
       <c r="D12">
-        <v>24.58059557451038</v>
+        <v>24.580595574510379</v>
       </c>
       <c r="E12">
-        <v>0.07330647908224582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>7.3306479082245815E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.05945299145299145</v>
+        <v>5.9452991452991447E-2</v>
       </c>
       <c r="C13">
         <v>1.433551198257081</v>
       </c>
       <c r="D13">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E13">
-        <v>0.08522890713740387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>8.5228907137403873E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.06588034188034189</v>
+        <v>6.5880341880341892E-2</v>
       </c>
       <c r="C14">
         <v>1.433551198257081</v>
       </c>
       <c r="D14">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E14">
-        <v>0.09444284304415025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>9.4442843044150251E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.07391452991452992</v>
+        <v>7.3914529914529917E-2</v>
       </c>
       <c r="C15">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D15">
         <v>24.85220436538895</v>
@@ -824,15 +864,15 @@
         <v>0.106542462174438</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.08194871794871794</v>
+        <v>8.1948717948717942E-2</v>
       </c>
       <c r="C16">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D16">
         <v>24.85220436538895</v>
@@ -841,12 +881,12 @@
         <v>0.118123164584703</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.08837606837606837</v>
+        <v>8.8376068376068373E-2</v>
       </c>
       <c r="C17">
         <v>1.449304508128038</v>
@@ -855,18 +895,18 @@
         <v>24.98800876082824</v>
       </c>
       <c r="E17">
-        <v>0.1280838343080676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.12808383430806761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1012307692307692</v>
+        <v>0.10123076923076919</v>
       </c>
       <c r="C18">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D18">
         <v>24.85220436538895</v>
@@ -875,7 +915,7 @@
         <v>0.1459168503693391</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -883,7 +923,7 @@
         <v>0.1140854700854701</v>
       </c>
       <c r="C19">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D19">
         <v>24.85220436538895</v>
@@ -892,49 +932,49 @@
         <v>0.1644459742257631</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.126940170940171</v>
+        <v>0.12694017094017099</v>
       </c>
       <c r="C20">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D20">
         <v>24.85220436538895</v>
       </c>
       <c r="E20">
-        <v>0.1829750980821871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.18297509808218709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1365811965811966</v>
+        <v>0.13658119658119661</v>
       </c>
       <c r="C21">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D21">
         <v>24.85220436538895</v>
       </c>
       <c r="E21">
-        <v>0.1968719409745051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.19687194097450511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1478290598290598</v>
+        <v>0.14782905982905981</v>
       </c>
       <c r="C22">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D22">
         <v>24.85220436538895</v>
@@ -943,41 +983,41 @@
         <v>0.2130849243488761</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1574700854700855</v>
+        <v>0.15747008547008551</v>
       </c>
       <c r="C23">
         <v>1.433551198257081</v>
       </c>
       <c r="D23">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E23">
-        <v>0.2257414297152859</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.22574142971528591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1655042735042735</v>
+        <v>0.16550427350427349</v>
       </c>
       <c r="C24">
         <v>1.433551198257081</v>
       </c>
       <c r="D24">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E24">
         <v>0.2372588495987189</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -988,30 +1028,30 @@
         <v>1.433551198257081</v>
       </c>
       <c r="D25">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E25">
-        <v>0.2487762694821518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.24877626948215181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1847863247863248</v>
+        <v>0.18478632478632481</v>
       </c>
       <c r="C26">
         <v>1.425674543321602</v>
       </c>
       <c r="D26">
-        <v>24.58059557451038</v>
+        <v>24.580595574510379</v>
       </c>
       <c r="E26">
-        <v>0.2634451592018209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.26344515920182088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1022,13 +1062,13 @@
         <v>1.425674543321602</v>
       </c>
       <c r="D27">
-        <v>24.58059557451038</v>
+        <v>24.580595574510379</v>
       </c>
       <c r="E27">
-        <v>0.2748992965584218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.27489929655842182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1042,15 +1082,15 @@
         <v>24.4447911790711</v>
       </c>
       <c r="E28">
-        <v>0.2870495417101752</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.28704954171017522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2104957264957265</v>
+        <v>0.21049572649572651</v>
       </c>
       <c r="C29">
         <v>1.417797888386124</v>
@@ -1059,61 +1099,61 @@
         <v>24.4447911790711</v>
       </c>
       <c r="E29">
-        <v>0.2984403965399441</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.29844039653994409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.2185299145299145</v>
+        <v>0.21852991452991449</v>
       </c>
       <c r="C30">
         <v>1.409921233450645</v>
       </c>
       <c r="D30">
-        <v>24.30898678363181</v>
+        <v>24.308986783631809</v>
       </c>
       <c r="E30">
-        <v>0.3081099666398812</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.30810996663988122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2265641025641026</v>
+        <v>0.22656410256410259</v>
       </c>
       <c r="C31">
         <v>1.402044578515167</v>
       </c>
       <c r="D31">
-        <v>24.17318238819253</v>
+        <v>24.173182388192529</v>
       </c>
       <c r="E31">
         <v>0.3176529716861542</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.232991452991453</v>
+        <v>0.23299145299145299</v>
       </c>
       <c r="C32">
         <v>1.402044578515167</v>
       </c>
       <c r="D32">
-        <v>24.17318238819253</v>
+        <v>24.173182388192529</v>
       </c>
       <c r="E32">
-        <v>0.326664403507038</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.32666440350703801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1124,531 +1164,531 @@
         <v>1.402044578515167</v>
       </c>
       <c r="D33">
-        <v>24.17318238819253</v>
+        <v>24.173182388192529</v>
       </c>
       <c r="E33">
-        <v>0.3379286932831427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.33792869328314268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2570940170940171</v>
+        <v>0.25709401709401708</v>
       </c>
       <c r="C34">
         <v>1.378414613708731</v>
       </c>
       <c r="D34">
-        <v>23.76576920187468</v>
+        <v>23.765769201874679</v>
       </c>
       <c r="E34">
         <v>0.3543821502594755</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.2715555555555556</v>
+        <v>0.27155555555555561</v>
       </c>
       <c r="C35">
-        <v>1.370537958773253</v>
+        <v>1.3705379587732529</v>
       </c>
       <c r="D35">
-        <v>23.62996480643539</v>
+        <v>23.629964806435389</v>
       </c>
       <c r="E35">
-        <v>0.3721771968046478</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.37217719680464778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.2844102564102564</v>
+        <v>0.28441025641025641</v>
       </c>
       <c r="C36">
-        <v>1.354784648902296</v>
+        <v>1.3547846489022961</v>
       </c>
       <c r="D36">
-        <v>23.35835601555682</v>
+        <v>23.358356015556819</v>
       </c>
       <c r="E36">
-        <v>0.3853146493749811</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.38531464937498111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.2956581196581197</v>
+        <v>0.29565811965811972</v>
       </c>
       <c r="C37">
-        <v>1.339031339031339</v>
+        <v>1.3390313390313391</v>
       </c>
       <c r="D37">
-        <v>23.08674722467826</v>
+        <v>23.086747224678259</v>
       </c>
       <c r="E37">
         <v>0.3958954878612998</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.3069059829059829</v>
+        <v>0.30690598290598292</v>
       </c>
       <c r="C38">
         <v>1.331154684095861</v>
       </c>
       <c r="D38">
-        <v>22.95094282923898</v>
+        <v>22.950942829238979</v>
       </c>
       <c r="E38">
-        <v>0.4085393367223433</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.40853933672234333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.3165470085470086</v>
+        <v>0.31654700854700862</v>
       </c>
       <c r="C39">
-        <v>1.323278029160382</v>
+        <v>1.3232780291603821</v>
       </c>
       <c r="D39">
-        <v>22.81513843379969</v>
+        <v>22.815138433799689</v>
       </c>
       <c r="E39">
-        <v>0.4188797016067001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.41887970160670007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.3245811965811966</v>
+        <v>0.32458119658119661</v>
       </c>
       <c r="C40">
         <v>1.315401374224904</v>
       </c>
       <c r="D40">
-        <v>22.67933403836041</v>
+        <v>22.679334038360409</v>
       </c>
       <c r="E40">
-        <v>0.4269545520304696</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.42695455203046961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.3326153846153846</v>
+        <v>0.33261538461538459</v>
       </c>
       <c r="C41">
         <v>1.307524719289425</v>
       </c>
       <c r="D41">
-        <v>22.54352964292112</v>
+        <v>22.543529642921118</v>
       </c>
       <c r="E41">
-        <v>0.4349028374005749</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.43490283740057489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.3422564102564102</v>
+        <v>0.34225641025641018</v>
       </c>
       <c r="C42">
         <v>1.299648064353947</v>
       </c>
       <c r="D42">
-        <v>22.40772524748184</v>
+        <v>22.407725247481839</v>
       </c>
       <c r="E42">
-        <v>0.4448128811024739</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.44481288110247391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.3502905982905983</v>
+        <v>0.35029059829059828</v>
       </c>
       <c r="C43">
         <v>1.291771409418468</v>
       </c>
       <c r="D43">
-        <v>22.27192085204256</v>
+        <v>22.271920852042559</v>
       </c>
       <c r="E43">
-        <v>0.4524953798598847</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.45249537985988469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.3583247863247863</v>
+        <v>0.35832478632478632</v>
       </c>
       <c r="C44">
         <v>1.28389475448299</v>
       </c>
       <c r="D44">
-        <v>22.13611645660327</v>
+        <v>22.136116456603268</v>
       </c>
       <c r="E44">
-        <v>0.4600513135636313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.46005131356363133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.3647521367521367</v>
+        <v>0.36475213675213669</v>
       </c>
       <c r="C45">
-        <v>1.268141444612033</v>
+        <v>1.2681414446120329</v>
       </c>
       <c r="D45">
-        <v>21.86450766572471</v>
+        <v>21.864507665724709</v>
       </c>
       <c r="E45">
-        <v>0.4625573016261805</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.46255730162618047</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.3727863247863248</v>
+        <v>0.37278632478632479</v>
       </c>
       <c r="C46">
         <v>1.260264789676554</v>
       </c>
       <c r="D46">
-        <v>21.72870327028541</v>
+        <v>21.728703270285411</v>
       </c>
       <c r="E46">
-        <v>0.4698094792011333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.46980947920113331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.3776068376068376</v>
+        <v>0.37760683760683761</v>
       </c>
       <c r="C47">
-        <v>1.252388134741076</v>
+        <v>1.2523881347410759</v>
       </c>
       <c r="D47">
-        <v>21.59289887484614</v>
+        <v>21.592898874846139</v>
       </c>
       <c r="E47">
-        <v>0.4729103230159037</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.47291032301590369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.384034188034188</v>
+        <v>0.38403418803418798</v>
       </c>
       <c r="C48">
-        <v>1.252388134741076</v>
+        <v>1.2523881347410759</v>
       </c>
       <c r="D48">
-        <v>21.59289887484614</v>
+        <v>21.592898874846139</v>
       </c>
       <c r="E48">
         <v>0.4809598604289404</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.3904615384615385</v>
+        <v>0.39046153846153853</v>
       </c>
       <c r="C49">
-        <v>1.244511479805598</v>
+        <v>1.2445114798055981</v>
       </c>
       <c r="D49">
-        <v>21.45709447940686</v>
+        <v>21.457094479406859</v>
       </c>
       <c r="E49">
         <v>0.4859338670379395</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.3984957264957265</v>
+        <v>0.39849572649572651</v>
       </c>
       <c r="C50">
         <v>1.228758169934641</v>
       </c>
       <c r="D50">
-        <v>21.18548568852828</v>
+        <v>21.185485688528281</v>
       </c>
       <c r="E50">
         <v>0.4896548796156639</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4049230769230769</v>
+        <v>0.40492307692307689</v>
       </c>
       <c r="C51">
         <v>1.213004860063684</v>
       </c>
       <c r="D51">
-        <v>20.91387689764971</v>
+        <v>20.913876897649711</v>
       </c>
       <c r="E51">
         <v>0.4911736602596331</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.4129572649572649</v>
+        <v>0.41295726495726492</v>
       </c>
       <c r="C52">
-        <v>1.205128205128205</v>
+        <v>1.2051282051282051</v>
       </c>
       <c r="D52">
-        <v>20.77807250221043</v>
+        <v>20.778072502210431</v>
       </c>
       <c r="E52">
-        <v>0.4976664475126014</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.49766644751260142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.4193846153846154</v>
+        <v>0.41938461538461541</v>
       </c>
       <c r="C53">
         <v>1.197251550192727</v>
       </c>
       <c r="D53">
-        <v>20.64226810677115</v>
+        <v>20.642268106771152</v>
       </c>
       <c r="E53">
-        <v>0.5021088808962113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.50210888089621131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4258119658119658</v>
+        <v>0.42581196581196579</v>
       </c>
       <c r="C54">
         <v>1.189374895257248</v>
       </c>
       <c r="D54">
-        <v>20.50646371133186</v>
+        <v>20.506463711331861</v>
       </c>
       <c r="E54">
-        <v>0.5064500622368897</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.50645006223688971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.4322393162393162</v>
+        <v>0.43223931623931622</v>
       </c>
       <c r="C55">
         <v>1.18149824032177</v>
       </c>
       <c r="D55">
-        <v>20.37065931589258</v>
+        <v>20.370659315892581</v>
       </c>
       <c r="E55">
-        <v>0.5106899915346371</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.51068999153463712</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.437059829059829</v>
+        <v>0.43705982905982899</v>
       </c>
       <c r="C56">
         <v>1.173621585386291</v>
       </c>
       <c r="D56">
-        <v>20.2348549204533</v>
+        <v>20.234854920453301</v>
       </c>
       <c r="E56">
-        <v>0.512942849489858</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.51294284948985802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4418803418803419</v>
+        <v>0.44188034188034192</v>
       </c>
       <c r="C57">
         <v>1.165744930450813</v>
       </c>
       <c r="D57">
-        <v>20.09905052501401</v>
+        <v>20.099050525014011</v>
       </c>
       <c r="E57">
-        <v>0.5151197684128804</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.51511976841288043</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.4467008547008547</v>
+        <v>0.44670085470085469</v>
       </c>
       <c r="C58">
         <v>1.157868275515334</v>
       </c>
       <c r="D58">
-        <v>19.96324612957473</v>
+        <v>19.963246129574731</v>
       </c>
       <c r="E58">
-        <v>0.5172207483037046</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.51722074830370457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.4531282051282051</v>
+        <v>0.45312820512820512</v>
       </c>
       <c r="C59">
         <v>1.142114965644377</v>
       </c>
       <c r="D59">
-        <v>19.69163733869616</v>
+        <v>19.691637338696161</v>
       </c>
       <c r="E59">
-        <v>0.5175245044324984</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.51752450443249842</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.4579487179487179</v>
+        <v>0.45794871794871789</v>
       </c>
       <c r="C60">
-        <v>1.134238310708899</v>
+        <v>1.1342383107088989</v>
       </c>
       <c r="D60">
-        <v>19.55583294325688</v>
+        <v>19.555832943256881</v>
       </c>
       <c r="E60">
-        <v>0.5194229802374598</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.51942298023745981</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.4627692307692308</v>
+        <v>0.46276923076923082</v>
       </c>
       <c r="C61">
-        <v>1.126361655773421</v>
+        <v>1.1263616557734211</v>
       </c>
       <c r="D61">
-        <v>19.42002854781759</v>
+        <v>19.420028547817591</v>
       </c>
       <c r="E61">
-        <v>0.5212455170102229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.52124551701022293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.4675897435897436</v>
+        <v>0.46758974358974359</v>
       </c>
       <c r="C62">
-        <v>1.118485000837942</v>
+        <v>1.1184850008379419</v>
       </c>
       <c r="D62">
-        <v>19.28422415237831</v>
+        <v>19.284224152378311</v>
       </c>
       <c r="E62">
-        <v>0.5229921147507874</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.52299211475078744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.4708034188034188</v>
+        <v>0.47080341880341881</v>
       </c>
       <c r="C63">
-        <v>1.118485000837942</v>
+        <v>1.1184850008379419</v>
       </c>
       <c r="D63">
-        <v>19.28422415237831</v>
+        <v>19.284224152378311</v>
       </c>
       <c r="E63">
-        <v>0.5265865622748478</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.52658656227484779</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.4756239316239316</v>
+        <v>0.47562393162393157</v>
       </c>
       <c r="C64">
-        <v>1.110608345902463</v>
+        <v>1.1106083459024629</v>
       </c>
       <c r="D64">
         <v>19.14841975693902</v>
@@ -1657,63 +1697,63 @@
         <v>0.5282319079724811</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4788376068376068</v>
+        <v>0.47883760683760679</v>
       </c>
       <c r="C65">
-        <v>1.102731690966985</v>
+        <v>1.1027316909669851</v>
       </c>
       <c r="D65">
-        <v>19.01261536149974</v>
+        <v>19.012615361499741</v>
       </c>
       <c r="E65">
-        <v>0.5280294038866186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.52802940388661856</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.4852649572649573</v>
+        <v>0.48526495726495728</v>
       </c>
       <c r="C66">
         <v>1.094855036031507</v>
       </c>
       <c r="D66">
-        <v>18.87681096606046</v>
+        <v>18.876810966060461</v>
       </c>
       <c r="E66">
-        <v>0.5312947822711523</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.53129478227115234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.4916923076923077</v>
+        <v>0.49169230769230771</v>
       </c>
       <c r="C67">
         <v>1.07910172616055</v>
       </c>
       <c r="D67">
-        <v>18.60520217518189</v>
+        <v>18.605202175181891</v>
       </c>
       <c r="E67">
-        <v>0.5305860179706335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.53058601797063354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.4965128205128205</v>
+        <v>0.49651282051282047</v>
       </c>
       <c r="C68">
         <v>1.063348416289593</v>
@@ -1722,10 +1762,10 @@
         <v>18.33359338430332</v>
       </c>
       <c r="E68">
-        <v>0.5279661213597865</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.52796612135978649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1739,32 +1779,32 @@
         <v>18.33359338430332</v>
       </c>
       <c r="E69">
-        <v>0.5330920060331825</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.53309200603318252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.5061538461538461</v>
+        <v>0.50615384615384607</v>
       </c>
       <c r="C70">
         <v>1.055471761354114</v>
       </c>
       <c r="D70">
-        <v>18.19778898886404</v>
+        <v>18.197788988864041</v>
       </c>
       <c r="E70">
-        <v>0.5342310915161593</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.53423109151615933</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5093675213675214</v>
+        <v>0.50936752136752139</v>
       </c>
       <c r="C71">
         <v>1.039718451483157</v>
@@ -1773,15 +1813,15 @@
         <v>17.92618019798547</v>
       </c>
       <c r="E71">
-        <v>0.5295988105520535</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.52959881055205349</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5141880341880342</v>
+        <v>0.51418803418803416</v>
       </c>
       <c r="C72">
         <v>1.039718451483157</v>
@@ -1790,78 +1830,78 @@
         <v>17.92618019798547</v>
       </c>
       <c r="E72">
-        <v>0.5346107866771517</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.53461078667715167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5174017094017095</v>
+        <v>0.51740170940170949</v>
       </c>
       <c r="C73">
-        <v>1.031841796547679</v>
+        <v>1.0318417965476789</v>
       </c>
       <c r="D73">
         <v>17.79037580254619</v>
       </c>
       <c r="E73">
-        <v>0.5338767093659</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.53387670936590004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5222222222222223</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="C74">
-        <v>1.016088486676722</v>
+        <v>1.0160884866767219</v>
       </c>
       <c r="D74">
         <v>17.51876701166762</v>
       </c>
       <c r="E74">
-        <v>0.5306239874867326</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.53062398748673256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5254358974358974</v>
+        <v>0.52543589743589736</v>
       </c>
       <c r="C75">
-        <v>1.016088486676722</v>
+        <v>1.0160884866767219</v>
       </c>
       <c r="D75">
         <v>17.51876701166762</v>
       </c>
       <c r="E75">
-        <v>0.5338893658712662</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.53388936587126623</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5286495726495727</v>
+        <v>0.52864957264957269</v>
       </c>
       <c r="C76">
-        <v>1.008211831741244</v>
+        <v>1.0082118317412441</v>
       </c>
       <c r="D76">
         <v>17.38296261622834</v>
       </c>
       <c r="E76">
-        <v>0.5329907539902513</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.53299075399025131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1869,126 +1909,126 @@
         <v>0.5318632478632479</v>
       </c>
       <c r="C77">
-        <v>1.000335176805765</v>
+        <v>1.0003351768057649</v>
       </c>
       <c r="D77">
         <v>17.24715822078905</v>
       </c>
       <c r="E77">
-        <v>0.5320415160877704</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.53204151608777039</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.535076923076923</v>
+        <v>0.53507692307692301</v>
       </c>
       <c r="C78">
-        <v>0.9924585218702867</v>
+        <v>0.99245852187028671</v>
       </c>
       <c r="D78">
         <v>17.11135382534977</v>
       </c>
       <c r="E78">
-        <v>0.5310416521638242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.53104165216382415</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5382905982905983</v>
+        <v>0.53829059829059833</v>
       </c>
       <c r="C79">
-        <v>0.9924585218702867</v>
+        <v>0.99245852187028671</v>
       </c>
       <c r="D79">
         <v>17.11135382534977</v>
       </c>
       <c r="E79">
-        <v>0.5342310915161596</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.53423109151615955</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5415042735042735</v>
+        <v>0.54150427350427355</v>
       </c>
       <c r="C80">
-        <v>0.984581866934808</v>
+        <v>0.98458186693480798</v>
       </c>
       <c r="D80">
         <v>16.97554942991048</v>
       </c>
       <c r="E80">
-        <v>0.5331552885600145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.53315528856001448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5447179487179487</v>
+        <v>0.54471794871794865</v>
       </c>
       <c r="C81">
-        <v>0.9767052119993296</v>
+        <v>0.97670521199932958</v>
       </c>
       <c r="D81">
         <v>16.8397450344712</v>
       </c>
       <c r="E81">
-        <v>0.532028859582404</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.53202885958240398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5495384615384615</v>
+        <v>0.54953846153846153</v>
       </c>
       <c r="C82">
-        <v>0.9688285570638512</v>
+        <v>0.96882855706385118</v>
       </c>
       <c r="D82">
         <v>16.70394063903192</v>
       </c>
       <c r="E82">
-        <v>0.5324085547433963</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.53240855474339632</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5527521367521367</v>
+        <v>0.55275213675213675</v>
       </c>
       <c r="C83">
-        <v>0.9530752471928943</v>
+        <v>0.95307524719289427</v>
       </c>
       <c r="D83">
         <v>16.43233184815335</v>
       </c>
       <c r="E83">
-        <v>0.5268143793714433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.52681437937144326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.555965811965812</v>
+        <v>0.55596581196581196</v>
       </c>
       <c r="C84">
-        <v>0.9530752471928943</v>
+        <v>0.95307524719289427</v>
       </c>
       <c r="D84">
         <v>16.43233184815335</v>
@@ -1997,313 +2037,313 @@
         <v>0.5298772536701144</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5607863247863248</v>
+        <v>0.56078632478632484</v>
       </c>
       <c r="C85">
-        <v>0.9451985922574158</v>
+        <v>0.94519859225741576</v>
       </c>
       <c r="D85">
-        <v>16.29652745271406</v>
+        <v>16.296527452714059</v>
       </c>
       <c r="E85">
-        <v>0.5300544447452442</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.53005444474524421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5639999999999999</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="C86">
-        <v>0.9373219373219374</v>
+        <v>0.93732193732193736</v>
       </c>
       <c r="D86">
         <v>16.16072305727478</v>
       </c>
       <c r="E86">
-        <v>0.5286495726495726</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.52864957264957257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5672136752136753</v>
+        <v>0.56721367521367527</v>
       </c>
       <c r="C87">
-        <v>0.9294452823864588</v>
+        <v>0.92944528238645885</v>
       </c>
       <c r="D87">
         <v>16.0249186618355</v>
       </c>
       <c r="E87">
-        <v>0.5271940745324356</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.52719407453243561</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.5704273504273505</v>
+        <v>0.57042735042735049</v>
       </c>
       <c r="C88">
-        <v>0.9215686274509803</v>
+        <v>0.92156862745098034</v>
       </c>
       <c r="D88">
-        <v>15.88911426639621</v>
+        <v>15.889114266396209</v>
       </c>
       <c r="E88">
-        <v>0.5256879503938328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.52568795039383276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5736410256410256</v>
+        <v>0.57364102564102559</v>
       </c>
       <c r="C89">
-        <v>0.9215686274509803</v>
+        <v>0.92156862745098034</v>
       </c>
       <c r="D89">
-        <v>15.88911426639621</v>
+        <v>15.889114266396209</v>
       </c>
       <c r="E89">
-        <v>0.5286495726495726</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.52864957264957257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.5752478632478633</v>
+        <v>0.57524786324786326</v>
       </c>
       <c r="C90">
-        <v>0.9136919725155019</v>
+        <v>0.91369197251550194</v>
       </c>
       <c r="D90">
-        <v>15.75330987095693</v>
+        <v>15.753309870956929</v>
       </c>
       <c r="E90">
-        <v>0.5255993548562679</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.52559935485626785</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5784615384615385</v>
+        <v>0.57846153846153847</v>
       </c>
       <c r="C91">
-        <v>0.9058153175800235</v>
+        <v>0.90581531758002354</v>
       </c>
       <c r="D91">
         <v>15.61750547551765</v>
       </c>
       <c r="E91">
-        <v>0.5239793221693675</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.52397932216936749</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5816752136752137</v>
+        <v>0.58167521367521369</v>
       </c>
       <c r="C92">
-        <v>0.8979386626445449</v>
+        <v>0.89793866264454492</v>
       </c>
       <c r="D92">
-        <v>15.48170108007836</v>
+        <v>15.481701080078359</v>
       </c>
       <c r="E92">
-        <v>0.5223086634610012</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.52230866346100124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.5832820512820512</v>
+        <v>0.58328205128205124</v>
       </c>
       <c r="C93">
-        <v>0.8979386626445449</v>
+        <v>0.89793866264454492</v>
       </c>
       <c r="D93">
-        <v>15.48170108007836</v>
+        <v>15.481701080078359</v>
       </c>
       <c r="E93">
-        <v>0.5237515050727719</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.52375150507277191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.5864957264957265</v>
+        <v>0.58649572649572645</v>
       </c>
       <c r="C94">
-        <v>0.8900620077090664</v>
+        <v>0.89006200770906641</v>
       </c>
       <c r="D94">
-        <v>15.34589668463908</v>
+        <v>15.345896684639079</v>
       </c>
       <c r="E94">
-        <v>0.5220175638375738</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.52201756383757381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.5897094017094018</v>
+        <v>0.58970940170940178</v>
       </c>
       <c r="C95">
-        <v>0.8900620077090664</v>
+        <v>0.89006200770906641</v>
       </c>
       <c r="D95">
-        <v>15.34589668463908</v>
+        <v>15.345896684639079</v>
       </c>
       <c r="E95">
-        <v>0.5248779340503825</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.52487793405038252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5913162393162393</v>
+        <v>0.59131623931623933</v>
       </c>
       <c r="C96">
-        <v>0.882185352773588</v>
+        <v>0.88218535277358801</v>
       </c>
       <c r="D96">
-        <v>15.21009228919979</v>
+        <v>15.210092289199791</v>
       </c>
       <c r="E96">
-        <v>0.521650525181948</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.52165052518194799</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.5929230769230769</v>
+        <v>0.59292307692307689</v>
       </c>
       <c r="C97">
-        <v>0.8743086978381095</v>
+        <v>0.87430869783810949</v>
       </c>
       <c r="D97">
-        <v>15.07428789376051</v>
+        <v>15.074287893760509</v>
       </c>
       <c r="E97">
-        <v>0.5183978033027806</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.51839780330278062</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5977435897435898</v>
+        <v>0.59774358974358976</v>
       </c>
       <c r="C98">
-        <v>0.8664320429026311</v>
+        <v>0.86643204290263109</v>
       </c>
       <c r="D98">
-        <v>14.93848349832123</v>
+        <v>14.938483498321229</v>
       </c>
       <c r="E98">
-        <v>0.5179041995934907</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.51790419959349066</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6025641025641025</v>
+        <v>0.60256410256410253</v>
       </c>
       <c r="C99">
-        <v>0.8585553879671527</v>
+        <v>0.85855538796715269</v>
       </c>
       <c r="D99">
-        <v>14.80267910288194</v>
+        <v>14.802679102881941</v>
       </c>
       <c r="E99">
-        <v>0.5173346568520022</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.51733465685200219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6057777777777777</v>
+        <v>0.60577777777777775</v>
       </c>
       <c r="C100">
-        <v>0.8428020780961959</v>
+        <v>0.84280207809619589</v>
       </c>
       <c r="D100">
-        <v>14.53107031200338</v>
+        <v>14.531070312003379</v>
       </c>
       <c r="E100">
-        <v>0.5105507699756067</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.51055076997560667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6105982905982906</v>
+        <v>0.61059829059829063</v>
       </c>
       <c r="C101">
-        <v>0.8349254231607174</v>
+        <v>0.83492542316071738</v>
       </c>
       <c r="D101">
-        <v>14.39526591656409</v>
+        <v>14.395265916564091</v>
       </c>
       <c r="E101">
-        <v>0.5098040361589885</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.50980403615898851</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6122051282051282</v>
+        <v>0.61220512820512818</v>
       </c>
       <c r="C102">
-        <v>0.8270487682252388</v>
+        <v>0.82704876822523876</v>
       </c>
       <c r="D102">
-        <v>14.25946152112481</v>
+        <v>14.259461521124811</v>
       </c>
       <c r="E102">
-        <v>0.5063234971832257</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.50632349718322567</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2311,24 +2351,24 @@
         <v>0.6154188034188034</v>
       </c>
       <c r="C103">
-        <v>0.8270487682252388</v>
+        <v>0.82704876822523876</v>
       </c>
       <c r="D103">
-        <v>14.25946152112481</v>
+        <v>14.259461521124811</v>
       </c>
       <c r="E103">
-        <v>0.5089813633101717</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.50898136331017174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6186324786324787</v>
+        <v>0.61863247863247872</v>
       </c>
       <c r="C104">
-        <v>0.8191721132897605</v>
+        <v>0.81917211328976047</v>
       </c>
       <c r="D104">
         <v>14.12365712568552</v>
@@ -2337,32 +2377,32 @@
         <v>0.5067664748710502</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.6202393162393163</v>
+        <v>0.62023931623931627</v>
       </c>
       <c r="C105">
-        <v>0.8191721132897605</v>
+        <v>0.81917211328976047</v>
       </c>
       <c r="D105">
         <v>14.12365712568552</v>
       </c>
       <c r="E105">
-        <v>0.5080827514291567</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>0.50808275142915671</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.6234529914529915</v>
+        <v>0.62345299145299149</v>
       </c>
       <c r="C106">
-        <v>0.8034188034188033</v>
+        <v>0.80341880341880334</v>
       </c>
       <c r="D106">
         <v>13.85204833480695</v>
@@ -2371,236 +2411,236 @@
         <v>0.5008938563810359</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.625059829059829</v>
+        <v>0.62505982905982904</v>
       </c>
       <c r="C107">
-        <v>0.8034188034188033</v>
+        <v>0.80341880341880334</v>
       </c>
       <c r="D107">
         <v>13.85204833480695</v>
       </c>
       <c r="E107">
-        <v>0.5021848199284096</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>0.50218481992840958</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.6282735042735044</v>
+        <v>0.62827350427350437</v>
       </c>
       <c r="C108">
-        <v>0.7955421484833249</v>
+        <v>0.79554214848332494</v>
       </c>
       <c r="D108">
         <v>13.71624393936767</v>
       </c>
       <c r="E108">
-        <v>0.4998180534248911</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>0.49981805342489111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.6298803418803419</v>
+        <v>0.62988034188034192</v>
       </c>
       <c r="C109">
-        <v>0.7955421484833249</v>
+        <v>0.79554214848332494</v>
       </c>
       <c r="D109">
         <v>13.71624393936767</v>
       </c>
       <c r="E109">
-        <v>0.5010963604668984</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>0.50109636046689843</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.6330940170940171</v>
+        <v>0.63309401709401714</v>
       </c>
       <c r="C110">
-        <v>0.7876654935478464</v>
+        <v>0.78766549354784643</v>
       </c>
       <c r="D110">
         <v>13.58043954392839</v>
       </c>
       <c r="E110">
-        <v>0.4986663114365477</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>0.49866631143654772</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.6347008547008547</v>
+        <v>0.63470085470085469</v>
       </c>
       <c r="C111">
-        <v>0.7797888386123679</v>
+        <v>0.77978883861236792</v>
       </c>
       <c r="D111">
         <v>13.4446351484891</v>
       </c>
       <c r="E111">
-        <v>0.4949326423534567</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>0.49493264235345669</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.6363076923076922</v>
+        <v>0.63630769230769224</v>
       </c>
       <c r="C112">
-        <v>0.7797888386123679</v>
+        <v>0.77978883861236792</v>
       </c>
       <c r="D112">
         <v>13.4446351484891</v>
       </c>
       <c r="E112">
-        <v>0.4961856363847313</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>0.49618563638473129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.6395213675213676</v>
+        <v>0.63952136752136757</v>
       </c>
       <c r="C113">
-        <v>0.7719121836768896</v>
+        <v>0.77191218367688963</v>
       </c>
       <c r="D113">
         <v>13.30883075304982</v>
       </c>
       <c r="E113">
-        <v>0.4936543353114495</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>0.49365433531144948</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.6411282051282051</v>
+        <v>0.64112820512820512</v>
       </c>
       <c r="C114">
-        <v>0.7719121836768896</v>
+        <v>0.77191218367688963</v>
       </c>
       <c r="D114">
         <v>13.30883075304982</v>
       </c>
       <c r="E114">
-        <v>0.4948946728373577</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>0.49489467283735772</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.6443418803418803</v>
+        <v>0.64434188034188034</v>
       </c>
       <c r="C115">
-        <v>0.7640355287414111</v>
+        <v>0.76403552874141112</v>
       </c>
       <c r="D115">
         <v>13.17302635761054</v>
       </c>
       <c r="E115">
-        <v>0.4923000892372436</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>0.49230008923724361</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.6475555555555557</v>
+        <v>0.64755555555555566</v>
       </c>
       <c r="C116">
-        <v>0.7561588738059326</v>
+        <v>0.75615887380593261</v>
       </c>
       <c r="D116">
         <v>13.03722196217125</v>
       </c>
       <c r="E116">
-        <v>0.489654879615664</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>0.48965487961566401</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.6491623931623932</v>
+        <v>0.64916239316239321</v>
       </c>
       <c r="C117">
-        <v>0.7561588738059326</v>
+        <v>0.75615887380593261</v>
       </c>
       <c r="D117">
         <v>13.03722196217125</v>
       </c>
       <c r="E117">
-        <v>0.4908699041308393</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>0.49086990413083931</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.6523760683760684</v>
+        <v>0.65237606837606843</v>
       </c>
       <c r="C118">
-        <v>0.7482822188704542</v>
+        <v>0.74828221887045421</v>
       </c>
       <c r="D118">
         <v>12.90141756673197</v>
       </c>
       <c r="E118">
-        <v>0.4881614119824276</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>0.48816141198242757</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.653982905982906</v>
+        <v>0.65398290598290598</v>
       </c>
       <c r="C119">
-        <v>0.7482822188704542</v>
+        <v>0.74828221887045421</v>
       </c>
       <c r="D119">
         <v>12.90141756673197</v>
       </c>
       <c r="E119">
-        <v>0.4893637799922365</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>0.48936377999223651</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.6555897435897435</v>
+        <v>0.65558974358974353</v>
       </c>
       <c r="C120">
-        <v>0.7482822188704542</v>
+        <v>0.74828221887045421</v>
       </c>
       <c r="D120">
         <v>12.90141756673197</v>
@@ -2609,12 +2649,12 @@
         <v>0.4905661480020454</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.6571965811965813</v>
+        <v>0.65719658119658131</v>
       </c>
       <c r="C121">
         <v>0.7404055639349757</v>
@@ -2623,15 +2663,15 @@
         <v>12.76561317129268</v>
       </c>
       <c r="E121">
-        <v>0.4865920053169928</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>0.48659200531699282</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.6588034188034189</v>
+        <v>0.65880341880341886</v>
       </c>
       <c r="C122">
         <v>0.7325289089994973</v>
@@ -2640,15 +2680,15 @@
         <v>12.6298087758534</v>
       </c>
       <c r="E122">
-        <v>0.4825925496212073</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>0.48259254962120729</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.6620170940170941</v>
+        <v>0.66201709401709408</v>
       </c>
       <c r="C123">
         <v>0.7325289089994973</v>
@@ -2657,15 +2697,15 @@
         <v>12.6298087758534</v>
       </c>
       <c r="E123">
-        <v>0.4849466596193596</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>0.48494665961935962</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.6636239316239316</v>
+        <v>0.66362393162393163</v>
       </c>
       <c r="C124">
         <v>0.7246522540640189</v>
@@ -2674,15 +2714,15 @@
         <v>12.49400438041412</v>
       </c>
       <c r="E124">
-        <v>0.4808965779021084</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>0.48089657790210838</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.6652307692307692</v>
+        <v>0.66523076923076918</v>
       </c>
       <c r="C125">
         <v>0.7246522540640189</v>
@@ -2691,52 +2731,52 @@
         <v>12.49400438041412</v>
       </c>
       <c r="E125">
-        <v>0.4820609763958181</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>0.48206097639581807</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.6668376068376068</v>
+        <v>0.66683760683760684</v>
       </c>
       <c r="C126">
-        <v>0.7167755991285403</v>
+        <v>0.71677559912854028</v>
       </c>
       <c r="D126">
         <v>12.35819998497483</v>
       </c>
       <c r="E126">
-        <v>0.4779729251624676</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>0.47797292516246759</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.6684444444444445</v>
+        <v>0.66844444444444451</v>
       </c>
       <c r="C127">
-        <v>0.7167755991285403</v>
+        <v>0.71677559912854028</v>
       </c>
       <c r="D127">
         <v>12.35819998497483</v>
       </c>
       <c r="E127">
-        <v>0.479124667150811</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>0.47912466715081098</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.6700512820512821</v>
+        <v>0.67005128205128206</v>
       </c>
       <c r="C128">
-        <v>0.7167755991285403</v>
+        <v>0.71677559912854028</v>
       </c>
       <c r="D128">
         <v>12.35819998497483</v>
@@ -2745,114 +2785,114 @@
         <v>0.4802764091391542</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.6732649572649573</v>
+        <v>0.67326495726495728</v>
       </c>
       <c r="C129">
-        <v>0.7088989441930619</v>
+        <v>0.70889894419306188</v>
       </c>
       <c r="D129">
         <v>12.22239558953555</v>
       </c>
       <c r="E129">
-        <v>0.4772768173673151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>0.47727681736731509</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.7005811965811966</v>
+        <v>0.70058119658119655</v>
       </c>
       <c r="C130">
-        <v>0.590749120160885</v>
+        <v>0.59074912016088499</v>
       </c>
       <c r="D130">
-        <v>10.18532965794629</v>
+        <v>10.185329657946291</v>
       </c>
       <c r="E130">
-        <v>0.4138677254816019</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>0.41386772548160189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.7295042735042735</v>
+        <v>0.72950427350427349</v>
       </c>
       <c r="C131">
-        <v>0.4962292609351434</v>
+        <v>0.49622926093514341</v>
       </c>
       <c r="D131">
-        <v>8.555676912674885</v>
+        <v>8.5556769126748851</v>
       </c>
       <c r="E131">
-        <v>0.3620013664900543</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>0.36200136649005432</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.7536068376068376</v>
+        <v>0.75360683760683755</v>
       </c>
       <c r="C132">
-        <v>0.4095860566448802</v>
+        <v>0.40958605664488018</v>
       </c>
       <c r="D132">
-        <v>7.061828562842762</v>
+        <v>7.0618285628427619</v>
       </c>
       <c r="E132">
-        <v>0.3086668528760032</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>0.30866685287600321</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.7728888888888888</v>
+        <v>0.77288888888888885</v>
       </c>
       <c r="C133">
-        <v>0.3465728171610525</v>
+        <v>0.34657281716105248</v>
       </c>
       <c r="D133">
-        <v>5.975393399328491</v>
+        <v>5.9753933993284907</v>
       </c>
       <c r="E133">
-        <v>0.2678622795746979</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>0.26786227957469788</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.7921709401709401</v>
+        <v>0.79217094017094014</v>
       </c>
       <c r="C134">
-        <v>0.2835595776772247</v>
+        <v>0.28355957767722467</v>
       </c>
       <c r="D134">
-        <v>4.888958235814219</v>
+        <v>4.8889582358142194</v>
       </c>
       <c r="E134">
-        <v>0.2246276572430418</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>0.22462765724304179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.8082393162393163</v>
+        <v>0.80823931623931633</v>
       </c>
       <c r="C135">
         <v>0.2441763029998324</v>
@@ -2861,27 +2901,27 @@
         <v>4.2099362586178</v>
       </c>
       <c r="E135">
-        <v>0.1973528881784287</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>0.19735288817842869</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.8210940170940171</v>
+        <v>0.82109401709401708</v>
       </c>
       <c r="C136">
-        <v>0.1969163733869616</v>
+        <v>0.19691637338696161</v>
       </c>
       <c r="D136">
-        <v>3.395109885982096</v>
+        <v>3.3951098859820958</v>
       </c>
       <c r="E136">
         <v>0.1616868560558857</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2889,55 +2929,55 @@
         <v>0.8355555555555555</v>
       </c>
       <c r="C137">
-        <v>0.1732864085805262</v>
+        <v>0.17328640858052621</v>
       </c>
       <c r="D137">
-        <v>2.987696699664245</v>
+        <v>2.9876966996642449</v>
       </c>
       <c r="E137">
         <v>0.1447904213917286</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.8451965811965811</v>
+        <v>0.84519658119658114</v>
       </c>
       <c r="C138">
-        <v>0.1417797888386124</v>
+        <v>0.14177978883861239</v>
       </c>
       <c r="D138">
-        <v>2.44447911790711</v>
+        <v>2.4444791179071101</v>
       </c>
       <c r="E138">
-        <v>0.1198317928091684</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>0.11983179280916841</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.8548376068376068</v>
+        <v>0.85483760683760679</v>
       </c>
       <c r="C139">
         <v>0.118149824032177</v>
       </c>
       <c r="D139">
-        <v>2.037065931589258</v>
+        <v>2.0370659315892579</v>
       </c>
       <c r="E139">
         <v>0.1009989128239505</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.8644786324786324</v>
+        <v>0.86447863247863244</v>
       </c>
       <c r="C140">
         <v>0.1023965141612201</v>
@@ -2946,321 +2986,321 @@
         <v>1.76545714071069</v>
       </c>
       <c r="E140">
-        <v>0.08851959853267044</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>8.851959853267044E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.8725128205128205</v>
+        <v>0.87251282051282053</v>
       </c>
       <c r="C141">
-        <v>0.08664320429026312</v>
+        <v>8.6643204290263121E-2</v>
       </c>
       <c r="D141">
-        <v>1.493848349832123</v>
+        <v>1.4938483498321229</v>
       </c>
       <c r="E141">
-        <v>0.07559730655356599</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>7.5597306553565988E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.878940170940171</v>
+        <v>0.87894017094017096</v>
       </c>
       <c r="C142">
-        <v>0.07088989441930618</v>
+        <v>7.0889894419306182E-2</v>
       </c>
       <c r="D142">
-        <v>1.222239558953555</v>
+        <v>1.2222395589535551</v>
       </c>
       <c r="E142">
-        <v>0.06230797591883565</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>6.2307975918835648E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.8869743589743589</v>
+        <v>0.88697435897435895</v>
       </c>
       <c r="C143">
-        <v>0.06301323948382773</v>
+        <v>6.3013239483827727E-2</v>
       </c>
       <c r="D143">
-        <v>1.086435163514271</v>
+        <v>1.0864351635142711</v>
       </c>
       <c r="E143">
-        <v>0.05589112769806586</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>5.5891127698065861E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.8917948717948718</v>
+        <v>0.89179487179487182</v>
       </c>
       <c r="C144">
-        <v>0.04725992961287079</v>
+        <v>4.7259929612870788E-2</v>
       </c>
       <c r="D144">
-        <v>0.8148263726357032</v>
+        <v>0.81482637263570323</v>
       </c>
       <c r="E144">
-        <v>0.04214616287014477</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>4.214616287014477E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.8966153846153846</v>
+        <v>0.89661538461538459</v>
       </c>
       <c r="C145">
-        <v>0.03938327467739232</v>
+        <v>3.9383274677392319E-2</v>
       </c>
       <c r="D145">
-        <v>0.6790219771964192</v>
+        <v>0.67902197719641921</v>
       </c>
       <c r="E145">
-        <v>0.03531164997228345</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>3.5311649972283449E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.903042735042735</v>
+        <v>0.90304273504273502</v>
       </c>
       <c r="C146">
-        <v>0.03938327467739232</v>
+        <v>3.9383274677392319E-2</v>
       </c>
       <c r="D146">
-        <v>0.6790219771964192</v>
+        <v>0.67902197719641921</v>
       </c>
       <c r="E146">
-        <v>0.03556478007961165</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>3.5564780079611648E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.9062564102564102</v>
+        <v>0.90625641025641024</v>
       </c>
       <c r="C147">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D147">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E147">
-        <v>0.0285530761066206</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>2.8553076106620601E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.9110769230769231</v>
+        <v>0.91107692307692312</v>
       </c>
       <c r="C148">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D148">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E148">
-        <v>0.02152871562826314</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>2.152871562826314E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.9142905982905983</v>
+        <v>0.91429059829059833</v>
       </c>
       <c r="C149">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D149">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E149">
-        <v>0.0216046546604616</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>2.16046546604616E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9175042735042734</v>
+        <v>0.91750427350427344</v>
       </c>
       <c r="C150">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D150">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E150">
-        <v>0.01445372912844004</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>1.445372912844004E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.9223247863247863</v>
+        <v>0.92232478632478632</v>
       </c>
       <c r="C151">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D151">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E151">
-        <v>0.0145296681606385</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>1.45296681606385E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.9255384615384615</v>
+        <v>0.92553846153846153</v>
       </c>
       <c r="C152">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D152">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E152">
-        <v>0.007290147091052069</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>7.290147091052069E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.9271452991452991</v>
+        <v>0.92714529914529908</v>
       </c>
       <c r="C153">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D153">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E153">
-        <v>0.007302803596418479</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>7.3028035964184789E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.9303589743589744</v>
+        <v>0.93035897435897441</v>
       </c>
       <c r="C154">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D154">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E154">
-        <v>0.007328116607151299</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>7.3281166071512988E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.931965811965812</v>
+        <v>0.93196581196581196</v>
       </c>
       <c r="C155">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D155">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E155">
-        <v>0.007340773112517709</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>7.3407731125177088E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.9351794871794872</v>
+        <v>0.93517948717948718</v>
       </c>
       <c r="C156">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D156">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E156">
-        <v>0.007366086123250529</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>7.3660861232505287E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.9367863247863247</v>
+        <v>0.93678632478632473</v>
       </c>
       <c r="C157">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D157">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E157">
-        <v>0.007378742628616938</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>7.3787426286169378E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.9383931623931625</v>
+        <v>0.93839316239316251</v>
       </c>
       <c r="C158">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D158">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E158">
-        <v>0.007391399133983349</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>7.3913991339833486E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.9400000000000001</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3272,12 +3312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.9416068376068376</v>
+        <v>0.94160683760683761</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3289,12 +3329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.9432136752136753</v>
+        <v>0.94321367521367527</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3306,12 +3346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.9448205128205128</v>
+        <v>0.94482051282051283</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3323,12 +3363,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.9464273504273504</v>
+        <v>0.94642735042735038</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3340,12 +3380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.948034188034188</v>
+        <v>0.94803418803418804</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3357,12 +3397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.948034188034188</v>
+        <v>0.94803418803418804</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3374,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3391,12 +3431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.9512478632478633</v>
+        <v>0.95124786324786326</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3408,12 +3448,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.9528547008547009</v>
+        <v>0.95285470085470092</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3425,12 +3465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.9528547008547009</v>
+        <v>0.95285470085470092</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3442,12 +3482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9544615384615385</v>
+        <v>0.95446153846153847</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3459,12 +3499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.956068376068376</v>
+        <v>0.95606837606837602</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3476,12 +3516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.956068376068376</v>
+        <v>0.95606837606837602</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3493,12 +3533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.9576752136752137</v>
+        <v>0.95767521367521369</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3510,12 +3550,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.9576752136752137</v>
+        <v>0.95767521367521369</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3527,12 +3567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.9592820512820514</v>
+        <v>0.95928205128205135</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3544,12 +3584,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.9592820512820514</v>
+        <v>0.95928205128205135</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3561,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3578,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3595,12 +3635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.9624957264957266</v>
+        <v>0.96249572649572657</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3612,12 +3652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.9624957264957266</v>
+        <v>0.96249572649572657</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3629,12 +3669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.9624957264957266</v>
+        <v>0.96249572649572657</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3646,12 +3686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.9641025641025641</v>
+        <v>0.96410256410256412</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3663,12 +3703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.9641025641025641</v>
+        <v>0.96410256410256412</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3680,12 +3720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.9641025641025641</v>
+        <v>0.96410256410256412</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3697,12 +3737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.9657094017094017</v>
+        <v>0.96570940170940167</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3714,12 +3754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3731,12 +3771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3748,12 +3788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3765,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3782,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3799,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3816,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3833,12 +3873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3850,12 +3890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3867,12 +3907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3884,12 +3924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3901,12 +3941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3918,12 +3958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3935,12 +3975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3952,12 +3992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.9753504273504273</v>
+        <v>0.97535042735042732</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3969,12 +4009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.9753504273504273</v>
+        <v>0.97535042735042732</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3986,12 +4026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.9753504273504273</v>
+        <v>0.97535042735042732</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -4003,12 +4043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.9753504273504273</v>
+        <v>0.97535042735042732</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -4020,12 +4060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.976957264957265</v>
+        <v>0.97695726495726498</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -4037,12 +4077,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.976957264957265</v>
+        <v>0.97695726495726498</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -4054,12 +4094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.976957264957265</v>
+        <v>0.97695726495726498</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -4071,12 +4111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.976957264957265</v>
+        <v>0.97695726495726498</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4088,12 +4128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.9785641025641026</v>
+        <v>0.97856410256410264</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4105,12 +4145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.9785641025641026</v>
+        <v>0.97856410256410264</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4122,12 +4162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.9785641025641026</v>
+        <v>0.97856410256410264</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -4139,12 +4179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.9785641025641026</v>
+        <v>0.97856410256410264</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4156,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4173,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4190,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4207,12 +4247,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.9817777777777777</v>
+        <v>0.98177777777777775</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4224,12 +4264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.9817777777777777</v>
+        <v>0.98177777777777775</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -4241,12 +4281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.9817777777777777</v>
+        <v>0.98177777777777775</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4258,12 +4298,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.9817777777777777</v>
+        <v>0.98177777777777775</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -4275,12 +4315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.9817777777777777</v>
+        <v>0.98177777777777775</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -4292,12 +4332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.9817777777777777</v>
+        <v>0.98177777777777775</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -4309,12 +4349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4326,12 +4366,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4343,12 +4383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4360,12 +4400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4377,12 +4417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4394,12 +4434,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4411,12 +4451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4428,12 +4468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4445,12 +4485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4462,12 +4502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4479,12 +4519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4496,12 +4536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4513,12 +4553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4530,12 +4570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4547,12 +4587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4564,12 +4604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4581,12 +4621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4598,12 +4638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4615,12 +4655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4632,12 +4672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4649,12 +4689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4666,12 +4706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4683,12 +4723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4700,12 +4740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4717,12 +4757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4734,12 +4774,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4751,12 +4791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4768,12 +4808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4785,12 +4825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4802,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4819,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4836,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4853,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4870,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4887,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4904,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4921,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
